--- a/Assets/Excel/006_Buff.xlsx
+++ b/Assets/Excel/006_Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDataInUnity" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="BuffEffectData" sheetId="2" r:id="rId3"/>
     <sheet name="#欄位說明" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
   <si>
     <t>int</t>
   </si>
@@ -94,76 +94,23 @@
     <t>血量+</t>
   </si>
   <si>
-    <t>上升定值</t>
-  </si>
-  <si>
-    <t>傷害類型</t>
-  </si>
-  <si>
     <t>血量+%</t>
   </si>
   <si>
-    <t>上升百分比</t>
-  </si>
-  <si>
-    <t>0=依照現有生命值 1=依照最大生命值</t>
-  </si>
-  <si>
-    <t>攻擊力+</t>
-  </si>
-  <si>
-    <t>攻擊力+%</t>
-  </si>
-  <si>
-    <t>移動速度+</t>
-  </si>
-  <si>
-    <t>移動速度+%</t>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正面效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>負面效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量-</t>
   </si>
   <si>
-    <t>下降定值</t>
-  </si>
-  <si>
-    <t>數值</t>
-  </si>
-  <si>
     <t>血量-%</t>
   </si>
   <si>
-    <t>下降百分比</t>
-  </si>
-  <si>
-    <t>攻擊力-</t>
-  </si>
-  <si>
-    <t>攻擊力-%</t>
-  </si>
-  <si>
-    <t>移動速度-</t>
-  </si>
-  <si>
-    <t>移動速度-%</t>
-  </si>
-  <si>
     <t>通用規則說明</t>
   </si>
   <si>
@@ -309,6 +256,389 @@
   </si>
   <si>
     <t>內容暫定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時反彈傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫反擊成功後子彈傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反擊子彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫反擊判斷時間秒數
+數值/100=秒
+e.g. 100/100=1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移動間隔-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生頻率-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕型武器攻擊倍率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型攻擊+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型武器攻擊+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型武器攻擊倍率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕型武器攻擊+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型攻擊倍率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆擊機率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆擊傷害+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾值+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>護盾值+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取生命機率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取生命值+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專屬技能CD-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用技能CD-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用CD時間-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴避率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運氣值+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間暫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有著不受到時間緩慢影響
+除此之外的單位受到時間減速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫降低周圍人速度%數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫數值(固定值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招喚單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫招喚數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫血量加成%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(不限定)武器攻擊+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(不限定)武器攻擊+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊頻率-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊頻率-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定值</t>
+  </si>
+  <si>
+    <t>填寫數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定值，計算方式為秒數/次數=攻擊頻率，每把武器會有初始的攻擊秒數
+計算=數值/100，初始值-計算值→新的數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比，計算方式為秒數/次數 =攻擊頻率，每把武器會有初始的攻擊秒數
+計算=初始攻擊頻率*填寫數值/100，初始值-計算值→新的數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定值，初始值+定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值/100，初始值+計算值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=依照初始值
+1=依照現在加總值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算方式，轉換成數值
+0=依照現有生命值*數值/100
+1=依照最大生命值*數值/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算對象使用的
+0=施放目標的生命值
+1=被施放目標的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否能賦予死亡單位使用
+0=不能
+1=可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算方式
+0=依照初始攻擊頻率
+1=依照最新的攻擊頻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算對象使用的
+0=施放目標持有的武器攻擊頻率
+1=被施放目標持有的武器攻擊頻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器效果類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫分裂數量+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(附加)分裂子彈效果+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(附加)貫通子彈效果+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招喚特定單位在角色周圍
+招喚的位置優先前方，若前方沒位置在改為上下，最後才是後方
+若上下左右都沒位置則改成斜方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量-</t>
+  </si>
+  <si>
+    <t>力量-%</t>
+  </si>
+  <si>
+    <t>再生-</t>
+  </si>
+  <si>
+    <t>再生-%</t>
+  </si>
+  <si>
+    <t>(不限定)武器攻擊-</t>
+  </si>
+  <si>
+    <t>(不限定)武器攻擊-%</t>
+  </si>
+  <si>
+    <t>輕型武器攻擊-</t>
+  </si>
+  <si>
+    <t>輕型武器攻擊倍率-%</t>
+  </si>
+  <si>
+    <t>中型武器攻擊-</t>
+  </si>
+  <si>
+    <t>中型武器攻擊倍率-%</t>
+  </si>
+  <si>
+    <t>重型攻擊-</t>
+  </si>
+  <si>
+    <t>重型攻擊倍率-%</t>
+  </si>
+  <si>
+    <t>爆擊機率-%</t>
+  </si>
+  <si>
+    <t>爆擊傷害-%</t>
+  </si>
+  <si>
+    <t>護盾值-</t>
+  </si>
+  <si>
+    <t>護盾值-%</t>
+  </si>
+  <si>
+    <t>偷取生命機率-%</t>
+  </si>
+  <si>
+    <t>偷取生命值-</t>
+  </si>
+  <si>
+    <t>迴避率-%</t>
+  </si>
+  <si>
+    <t>運氣值-</t>
+  </si>
+  <si>
+    <t>攻擊頻率+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊頻率+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面效果 (上升)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面效果 (下降)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專屬技能CD+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用技能CD+%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(不限定技能)CD-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=施放目標的力量
+1=被施放目標的力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=施放目標的武器攻擊
+1=被施放目標的武器攻擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(附加)彈射子彈效果+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時，改變武器的投射物具備分裂子彈，命中目標後分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時，改變武器的投射物具備貫通子彈效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時，改變武器的投射物具備彈射子彈效果，會命中指定目標數量後才消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫彈跳次數+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +734,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +787,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -572,6 +914,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Accent1" xfId="5"/>
@@ -883,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -909,49 +1259,49 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -965,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E2" s="18">
         <v>0</v>
@@ -1001,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="18">
         <v>0</v>
@@ -1010,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="T2" s="18">
         <v>0</v>
@@ -1030,11 +1380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
@@ -1046,19 +1396,19 @@
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1149,52 +1499,52 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1217,52 +1567,52 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1286,9 +1636,9 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1299,26 +1649,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1326,28 +1678,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -1372,11 +1721,8 @@
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1384,298 +1730,1311 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="C7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="40.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>1001</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>1002</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>1003</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>1004</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>1005</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>1006</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="40.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>101</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>102</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="40.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>103</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>201</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>202</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>203</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>1007</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>1008</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>1009</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>1010</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>1011</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>1013</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>1014</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>1015</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>1016</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>1017</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>1018</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>1019</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>1020</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>1021</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>1022</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1023</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>1024</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>1025</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>1026</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1027</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>1028</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>1029</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1703,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1711,37 +3070,37 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -1759,7 +3118,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1767,16 +3126,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1868,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D16" s="17"/>
     </row>
@@ -1880,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D17" s="17"/>
     </row>
@@ -1892,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1904,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17"/>
     </row>
@@ -1916,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -1928,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D21" s="17"/>
     </row>
@@ -1940,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -1952,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D23" s="17"/>
     </row>
@@ -1964,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D24" s="17"/>
     </row>
@@ -1976,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D25" s="17"/>
     </row>
@@ -1988,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D26" s="17"/>
     </row>
@@ -2000,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D27" s="17"/>
     </row>
@@ -2012,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D28" s="17"/>
     </row>
@@ -2024,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D29" s="17"/>
     </row>
@@ -2036,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D30" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2053,16 +3412,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/Assets/Excel/006_Buff.xlsx
+++ b/Assets/Excel/006_Buff.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="175">
   <si>
     <t>int</t>
   </si>
@@ -639,6 +639,10 @@
   </si>
   <si>
     <t>填寫彈跳次數+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果(讀取EffectData)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1238,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1385,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H12:H13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1398,7 @@
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
@@ -1570,7 +1574,7 @@
         <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
@@ -1654,8 +1658,8 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>

--- a/Assets/Excel/006_Buff.xlsx
+++ b/Assets/Excel/006_Buff.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
   <si>
     <t>int</t>
   </si>
@@ -639,10 +639,6 @@
   </si>
   <si>
     <t>填寫彈跳次數+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果(讀取EffectData)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1234,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1381,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H13" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1394,7 @@
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
@@ -1574,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
@@ -1658,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>

--- a/Assets/Excel/006_Buff.xlsx
+++ b/Assets/Excel/006_Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDataInUnity" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="180">
   <si>
     <t>int</t>
   </si>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填寫分裂數量+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(附加)分裂子彈效果+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,15 +626,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>持有時，改變武器的投射物具備彈射子彈效果，會命中指定目標數量後才消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(附加)散射子彈效果+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時，改變武器的投射物具備子彈效果，改成會變成散狀發射
+按照自身中心發射時，前方扇形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色自身中心前方扇形角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(附加)擴散子彈效果+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有時，改變武器投射物具備擴散效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫命中目標後的大小
+依照命中目標中心四周填寫幾格
+最小為1格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填寫彈跳次數+
+=投射物prefabs在彈跳幾次後消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>持有時，改變武器的投射物具備貫通子彈效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持有時，改變武器的投射物具備彈射子彈效果，會命中指定目標數量後才消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填寫彈跳次數+</t>
+    <t>填寫分裂數量+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H12:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1652,10 +1680,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1691,7 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
@@ -1753,7 +1781,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -1767,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1893,7 +1921,7 @@
         <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1921,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>121</v>
@@ -2059,7 +2087,7 @@
         <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2099,7 +2127,7 @@
         <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2139,7 +2167,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2179,7 +2207,7 @@
         <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2388,7 +2416,7 @@
         <v>111</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>112</v>
@@ -2421,13 +2449,13 @@
         <v>201</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -2439,10 +2467,10 @@
         <v>202</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -2452,89 +2480,83 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>203</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>204</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="54" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>1001</v>
+        <v>205</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>1002</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>110</v>
@@ -2546,75 +2568,77 @@
     </row>
     <row r="47" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>79</v>
@@ -2624,30 +2648,34 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>121</v>
@@ -2662,10 +2690,10 @@
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>121</v>
@@ -2680,13 +2708,13 @@
     </row>
     <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>79</v>
@@ -2698,10 +2726,10 @@
     </row>
     <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>121</v>
@@ -2716,13 +2744,13 @@
     </row>
     <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>79</v>
@@ -2734,13 +2762,13 @@
     </row>
     <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>79</v>
@@ -2750,12 +2778,12 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>121</v>
@@ -2763,21 +2791,17 @@
       <c r="D58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>168</v>
-      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>119</v>
@@ -2792,10 +2816,10 @@
     </row>
     <row r="60" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>121</v>
@@ -2807,17 +2831,17 @@
         <v>126</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>119</v>
@@ -2832,10 +2856,10 @@
     </row>
     <row r="62" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>121</v>
@@ -2847,17 +2871,17 @@
         <v>126</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>119</v>
@@ -2872,10 +2896,10 @@
     </row>
     <row r="64" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>121</v>
@@ -2887,20 +2911,20 @@
         <v>126</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>79</v>
@@ -2910,12 +2934,12 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>121</v>
@@ -2923,20 +2947,24 @@
       <c r="D66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>79</v>
@@ -2948,10 +2976,10 @@
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>121</v>
@@ -2966,13 +2994,13 @@
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>79</v>
@@ -2984,13 +3012,13 @@
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>79</v>
@@ -3002,10 +3030,10 @@
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>121</v>
@@ -3020,10 +3048,10 @@
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>119</v>
@@ -3035,6 +3063,42 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>1028</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>1029</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
